--- a/resources/experiment 2/metrics/MAPE/average time/Fallo Cardiaco.xlsx
+++ b/resources/experiment 2/metrics/MAPE/average time/Fallo Cardiaco.xlsx
@@ -465,10 +465,10 @@
         <v>3650464472355306</v>
       </c>
       <c r="C2" t="n">
-        <v>3650464472355306</v>
+        <v>3650464472355304</v>
       </c>
       <c r="D2" t="n">
-        <v>3650464472355306</v>
+        <v>3650464472355304</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0957796194621669</v>
+        <v>61662351217919.29</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0957796194621669</v>
+        <v>57880570928473.56</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0957796194621669</v>
+        <v>657521942064222.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>419838231376626.2</v>
+        <v>0.03872732500726751</v>
       </c>
       <c r="C4" t="n">
-        <v>419838231376626.2</v>
+        <v>0.03780677747620992</v>
       </c>
       <c r="D4" t="n">
-        <v>419838231376626.2</v>
+        <v>184481545137872</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>500101214419352.7</v>
+        <v>130251668181522.4</v>
       </c>
       <c r="C5" t="n">
-        <v>500101214419352.7</v>
+        <v>21514723638725.91</v>
       </c>
       <c r="D5" t="n">
-        <v>500101214419352.7</v>
+        <v>247892735450383.5</v>
       </c>
     </row>
   </sheetData>
